--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2249826538492292300" xfId="1" hidden="0"/>
-    <cellStyle name="5515805312620833841" xfId="2" hidden="0"/>
+    <cellStyle name="-950202900725123248" xfId="1" hidden="0"/>
+    <cellStyle name="493948343991180353" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-950202900725123248" xfId="1" hidden="0"/>
-    <cellStyle name="493948343991180353" xfId="2" hidden="0"/>
+    <cellStyle name="-1685006526388291367" xfId="1" hidden="0"/>
+    <cellStyle name="-5032954561421916436" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
